--- a/medicine/Enfance/Dominique_Roques/Dominique_Roques.xlsx
+++ b/medicine/Enfance/Dominique_Roques/Dominique_Roques.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Dominique Roques, née en 1948 à Casablanca (Maroc), est une scénariste de bande dessinée belge. Elle est notamment co-auteur de la série jeunesse Pico Bogue et des œuvres dérivées.
 </t>
@@ -511,11 +523,13 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Dominique Roques naît en 1948 à Casablanca[1]. S'inspirant de sa relation avec ses deux fils, elle lance la série sur Pico Bogue et sur sa petite sœur Ana Ana[2], dont le lectorat est plus jeune[3].
-À partir de 2008, elle publie chez Dargaud la série Pico Bogue[2], dont le dessin et les couleurs sont assurés par son fils Alexis Dormal[1]. Pico Bogue narre avec humour les aventures d'un petit garçon, « ses quotidiens, ses jeux, ses angoisses, ses éclats de rire, ses découvertes »[4]. Paru en 2020, le tome 12 de Pico Bogue, intitulé Inséparables, figure dans la sélection pour le fauve d'or au Festival d'Angoulême 2021[5].
-Les auteurs lancent également trois hors-série sur l'étymologie[6],[7].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dominique Roques naît en 1948 à Casablanca. S'inspirant de sa relation avec ses deux fils, elle lance la série sur Pico Bogue et sur sa petite sœur Ana Ana, dont le lectorat est plus jeune.
+À partir de 2008, elle publie chez Dargaud la série Pico Bogue, dont le dessin et les couleurs sont assurés par son fils Alexis Dormal. Pico Bogue narre avec humour les aventures d'un petit garçon, « ses quotidiens, ses jeux, ses angoisses, ses éclats de rire, ses découvertes ». Paru en 2020, le tome 12 de Pico Bogue, intitulé Inséparables, figure dans la sélection pour le fauve d'or au Festival d'Angoulême 2021.
+Les auteurs lancent également trois hors-série sur l'étymologie,.
 </t>
         </is>
       </c>
@@ -546,8 +560,13 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Pico Bogue
-1 La Vie et moi[8], Dargaud, Paris, mai 2008Scénario : Dominique Roques - Dessin et couleurs : Alexis Dormal -  (ISBN 978-2-205-06074-4)
+          <t>Pico Bogue</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>1 La Vie et moi, Dargaud, Paris, mai 2008Scénario : Dominique Roques - Dessin et couleurs : Alexis Dormal -  (ISBN 978-2-205-06074-4)
 2 Situations critiques, Dargaud, Paris, mars 2009Scénario : Dominique Roques - Dessin et couleurs : Alexis Dormal -  (ISBN 978-2-205-06206-9)
 3 Question d'équilibre, Dargaud, Paris, 13 novembre 2009Scénario : Dominique Roques - Dessin et couleurs : Alexis Dormal -  (ISBN 9782205063578)
 4 Pico love, Dargaud, Paris, 12 novembre 2010Scénario : Dominique Roques - Dessin et couleurs : Alexis Dormal -  (ISBN 9782205065213)
@@ -556,16 +575,50 @@
 7 Cadence infernale, Dargaud, Paris, 31 octobre 2014Scénario : Dominique Roques - Dessin et couleurs : Alexis Dormal -  (ISBN 978-2-205-07289-1)
 8 L'Original, Dargaud, Paris, 6 novembre 2015Scénario : Dominique Roques - Dessin et couleurs : Alexis Dormal -  (ISBN 978-2-205-07415-4)
 9 Carnet de bord, Dargaud, Paris, 10 novembre 2016Scénario : Dominique Roques - Dessin et couleurs : Alexis Dormal -  (ISBN 9782205075649)
-10 L'Amour de l'art[9], Dargaud, Paris, 3 novembre 2017Scénario : Dominique Roques - Dessin et couleurs : Alexis Dormal -  (ISBN 9782205077421)
+10 L'Amour de l'art, Dargaud, Paris, 3 novembre 2017Scénario : Dominique Roques - Dessin et couleurs : Alexis Dormal -  (ISBN 9782205077421)
 11 L'Heure est grave, Dargaud, Paris, 19 avril 2019Scénario : Dominique Roques - Dessin et couleurs : Alexis Dormal -  (ISBN 9782205078015)
 12 Inséparables, Dargaud, Paris, 25 septembre 2020Scénario : Dominique Roques - Dessin et couleurs : Alexis Dormal -  (ISBN 9782205084924)
 13 Sur le chemin, Dargaud, Paris, 17 septembre 2021Scénario : Dominique Roques - Dessin et couleurs : Alexis Dormal -  (ISBN 9782205089097)
 14 Un calme fou, Dargaud, Paris, 23 septembre 2022Scénario : Dominique Roques - Dessin et couleurs : Alexis Dormal -  (ISBN 9782205203172)
-15 Les Heures et les jours[10], Dargaud, Paris, 13 octobre 2023Scénario : Dominique Roques - Dessin et couleurs : Alexis Dormal -  (ISBN 978-2-205-20802-3)
-Série dérivée : Ana Ana
-Une série d'albums de jeunesse a été créée pour les plus petits. Elle se focalise sur le personnage de Ana Ana, la petite sœur de Pico Bogue.
-Douce nuit[11], octobre 2012
-Déluge de chocolat[11], octobre 2012
+15 Les Heures et les jours, Dargaud, Paris, 13 octobre 2023Scénario : Dominique Roques - Dessin et couleurs : Alexis Dormal -  (ISBN 978-2-205-20802-3)</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Dominique_Roques</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Dominique_Roques</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Série dérivée : Ana Ana</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Une série d'albums de jeunesse a été créée pour les plus petits. Elle se focalise sur le personnage de Ana Ana, la petite sœur de Pico Bogue.
+Douce nuit, octobre 2012
+Déluge de chocolat, octobre 2012
 Une virée à la mer, mars 2014
 Les Champions du désordre, septembre 2014
 Super-héros en herbe, mars 2015
@@ -575,7 +628,7 @@
 La Savane dans mon jardin, mars 2017
 10 Ana Ana est malade, Dargaud, coll. « Jeunesse », Paris, 18 août 2017Scénario : Dominique Roques - Dessin et couleurs : Alexis Dormal -  (ISBN 9782205076622),Format à l'italienne.
 11 Ana Ana très pressée, Dargaud, coll. « Jeunesse », Paris, 9 mars 2018Scénario : Dominique Roques - Dessin et couleurs : Alexis Dormal -  (ISBN 9782205077049)
-12 Je ne veux pas être un princesse[12] !, Dargaud, coll. « Jeunesse », Paris, 7 septembre 2018Scénario : Dominique Roques - Dessin et couleurs : Alexis Dormal -  (ISBN 9782205077889)
+12 Je ne veux pas être un princesse !, Dargaud, coll. « Jeunesse », Paris, 7 septembre 2018Scénario : Dominique Roques - Dessin et couleurs : Alexis Dormal -  (ISBN 9782205077889)
 13 Papillons, lilas et fraises des bois, Dargaud, coll. « Jeunesse », Paris, 19 avril 2019Scénario : Dominique Roques - Dessin et couleurs : Alexis Dormal -  (ISBN 9782205079227)
 14 Un bel hiver, Dargaud, coll. « Jeunesse », Paris, 25 octobre 2019Scénario : Dominique Roques - Dessin et couleurs : Alexis Dormal -  (ISBN 9782205079234)
 15 Les Doudous libraires, Dargaud, coll. « Jeunesse », Paris, 6 mars 2020Scénario : Dominique Roques - Dessin et couleurs : Alexis Dormal -  (ISBN 9782205084900)
@@ -586,41 +639,77 @@
 20 Joyeux anniversaire !, Dargaud, coll. « Jeunesse », Paris, 23 septembre 2022Scénario : Dominique Roques - Dessin et couleurs : Alexis Dormal -  (ISBN 9782205203141)
 21 Comment bien dormir avec six doudous ?, Dargaud, coll. « Jeunesse », Paris, 10 mars 2023Scénario : Dominique Roques - Dessin et couleurs : Alexis Dormal -  (ISBN 9782205206432)
 22 Joyeux Noël, Dargaud, coll. « Jeunesse », Paris, 13 octobre 2023Scénario : Dominique Roques - Dessin et couleurs : Alexis Dormal -  (ISBN 9782205211214)
-23 Le Sable, les vagues et touffe de poils, Dargaud, coll. « Jeunesse », Paris, 8 mars 2024Scénario : Dominique Roques - Dessin et couleurs : Alexis Dormal -  (ISBN 978-2-205-20644-9)
-Hors-série
-L'Étymologie avec Pico Bogue, septembre 2018
+23 Le Sable, les vagues et touffe de poils, Dargaud, coll. « Jeunesse », Paris, 8 mars 2024Scénario : Dominique Roques - Dessin et couleurs : Alexis Dormal -  (ISBN 978-2-205-20644-9)</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Dominique_Roques</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Dominique_Roques</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Hors-série</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>L'Étymologie avec Pico Bogue, septembre 2018
 L'Étymologie avec Pico Bogue, volume II, 2019
 3 volume III, Dargaud, Paris, 19 mars 2021Scénario : Dominique Roques - Dessin et couleurs : Alexis Dormal -  (ISBN 9782205089639).</t>
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
         <is>
           <t>Dominique_Roques</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="C7" t="inlineStr">
         <is>
           <t>Portail:Enfance/Articles liés</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Dominique_Roques</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>Récompense</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>2009 :  prix Saint-Michel de l'avenir (avec Alexis Dormal), pour Pico Bogue, t. 2 : Situations critiques[13].</t>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>2009 :  prix Saint-Michel de l'avenir (avec Alexis Dormal), pour Pico Bogue, t. 2 : Situations critiques.</t>
         </is>
       </c>
     </row>
